--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H2">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I2">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J2">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N2">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O2">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P2">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q2">
-        <v>140.0925449204475</v>
+        <v>1176.1990954892</v>
       </c>
       <c r="R2">
-        <v>560.37017968179</v>
+        <v>4704.796381956799</v>
       </c>
       <c r="S2">
-        <v>0.006532649578098983</v>
+        <v>0.01420924741695209</v>
       </c>
       <c r="T2">
-        <v>0.003623183324876788</v>
+        <v>0.009021754571635869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H3">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I3">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J3">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P3">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q3">
-        <v>826.6962377156009</v>
+        <v>3947.986651878638</v>
       </c>
       <c r="R3">
-        <v>4960.177426293605</v>
+        <v>23687.91991127183</v>
       </c>
       <c r="S3">
-        <v>0.03854963753849684</v>
+        <v>0.04769423760867276</v>
       </c>
       <c r="T3">
-        <v>0.03207100019059288</v>
+        <v>0.04542313469115043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H4">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I4">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J4">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N4">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O4">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P4">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q4">
-        <v>1717.14554969699</v>
+        <v>12520.46452927553</v>
       </c>
       <c r="R4">
-        <v>10302.87329818194</v>
+        <v>75122.78717565318</v>
       </c>
       <c r="S4">
-        <v>0.0800721420053617</v>
+        <v>0.151255326546272</v>
       </c>
       <c r="T4">
-        <v>0.06661524843004447</v>
+        <v>0.1440528544944372</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H5">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I5">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J5">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N5">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O5">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P5">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q5">
-        <v>632.3433212602515</v>
+        <v>4141.510725252425</v>
       </c>
       <c r="R5">
-        <v>2529.373285041006</v>
+        <v>16566.0429010097</v>
       </c>
       <c r="S5">
-        <v>0.02948677485436672</v>
+        <v>0.05003213384601073</v>
       </c>
       <c r="T5">
-        <v>0.01635415916306155</v>
+        <v>0.03176647003242669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H6">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I6">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J6">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N6">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O6">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P6">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q6">
-        <v>129.7314033607697</v>
+        <v>22980.91666040774</v>
       </c>
       <c r="R6">
-        <v>778.388420164618</v>
+        <v>137885.4999624465</v>
       </c>
       <c r="S6">
-        <v>0.006049499621212348</v>
+        <v>0.2776243681434529</v>
       </c>
       <c r="T6">
-        <v>0.005032823027483591</v>
+        <v>0.2644044584839423</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H7">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I7">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J7">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N7">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O7">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P7">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q7">
-        <v>1081.560263192681</v>
+        <v>6458.515375508209</v>
       </c>
       <c r="R7">
-        <v>6489.361579156085</v>
+        <v>38751.09225304925</v>
       </c>
       <c r="S7">
-        <v>0.05043419120586651</v>
+        <v>0.07802305176796324</v>
       </c>
       <c r="T7">
-        <v>0.04195824031187019</v>
+        <v>0.07430775219743409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>11.166373</v>
       </c>
       <c r="I8">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J8">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N8">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O8">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P8">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q8">
-        <v>72.84938953606751</v>
+        <v>128.0743081927147</v>
       </c>
       <c r="R8">
-        <v>437.096337216405</v>
+        <v>768.4458491562879</v>
       </c>
       <c r="S8">
-        <v>0.003397036823678252</v>
+        <v>0.001547220653241836</v>
       </c>
       <c r="T8">
-        <v>0.002826132113715443</v>
+        <v>0.001473545141989102</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>11.166373</v>
       </c>
       <c r="I9">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J9">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P9">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q9">
         <v>429.889515416713</v>
       </c>
       <c r="R9">
-        <v>3869.005638750416</v>
+        <v>3869.005638750417</v>
       </c>
       <c r="S9">
-        <v>0.02004615993742485</v>
+        <v>0.005193343975467973</v>
       </c>
       <c r="T9">
-        <v>0.02501581494242798</v>
+        <v>0.007419071193589868</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>11.166373</v>
       </c>
       <c r="I10">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J10">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N10">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O10">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P10">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q10">
-        <v>892.9312056614837</v>
+        <v>1363.331972442509</v>
       </c>
       <c r="R10">
-        <v>8036.380850953353</v>
+        <v>12269.98775198258</v>
       </c>
       <c r="S10">
-        <v>0.04163823754681831</v>
+        <v>0.01646993385913108</v>
       </c>
       <c r="T10">
-        <v>0.05196079689334604</v>
+        <v>0.02352850349058558</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>11.166373</v>
       </c>
       <c r="I11">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J11">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N11">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O11">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P11">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q11">
-        <v>328.8242422691195</v>
+        <v>450.9620208378087</v>
       </c>
       <c r="R11">
-        <v>1972.945453614717</v>
+        <v>2705.772125026852</v>
       </c>
       <c r="S11">
-        <v>0.01533338943016483</v>
+        <v>0.005447913498920019</v>
       </c>
       <c r="T11">
-        <v>0.01275646586420346</v>
+        <v>0.005188494901157244</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>11.166373</v>
       </c>
       <c r="I12">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J12">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N12">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O12">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P12">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q12">
-        <v>67.46150227948344</v>
+        <v>2502.352717498053</v>
       </c>
       <c r="R12">
-        <v>607.153520515351</v>
+        <v>22521.17445748248</v>
       </c>
       <c r="S12">
-        <v>0.003145794479315419</v>
+        <v>0.0302300427060129</v>
       </c>
       <c r="T12">
-        <v>0.003925670192551366</v>
+        <v>0.04318582402409846</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>11.166373</v>
       </c>
       <c r="I13">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J13">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N13">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O13">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P13">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q13">
-        <v>562.4211121640864</v>
+        <v>703.2566950973478</v>
       </c>
       <c r="R13">
-        <v>5061.790009476777</v>
+        <v>6329.31025587613</v>
       </c>
       <c r="S13">
-        <v>0.0262262352588358</v>
+        <v>0.008495796686623118</v>
       </c>
       <c r="T13">
-        <v>0.03272799628056323</v>
+        <v>0.01213686610439512</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H14">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I14">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J14">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N14">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O14">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P14">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q14">
-        <v>30.7373510174275</v>
+        <v>53.69482246364799</v>
       </c>
       <c r="R14">
-        <v>184.424106104565</v>
+        <v>322.168934781888</v>
       </c>
       <c r="S14">
-        <v>0.001433312124281143</v>
+        <v>0.0006486682572034821</v>
       </c>
       <c r="T14">
-        <v>0.001192430236603258</v>
+        <v>0.0006177799896620997</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H15">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I15">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J15">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P15">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q15">
-        <v>181.383330982249</v>
+        <v>180.230067489813</v>
       </c>
       <c r="R15">
-        <v>1632.449978840241</v>
+        <v>1622.070607408317</v>
       </c>
       <c r="S15">
-        <v>0.008458078488675028</v>
+        <v>0.002177296029862694</v>
       </c>
       <c r="T15">
-        <v>0.01055492557685369</v>
+        <v>0.003110426409530538</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H16">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I16">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J16">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N16">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O16">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P16">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q16">
-        <v>376.7545627714996</v>
+        <v>571.5734033805204</v>
       </c>
       <c r="R16">
-        <v>3390.791064943496</v>
+        <v>5144.160630424683</v>
       </c>
       <c r="S16">
-        <v>0.01756842619236959</v>
+        <v>0.006904977173278017</v>
       </c>
       <c r="T16">
-        <v>0.02192382480384816</v>
+        <v>0.009864264235269784</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H17">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I17">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J17">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N17">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O17">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P17">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q17">
-        <v>138.7408490590235</v>
+        <v>189.064660886542</v>
       </c>
       <c r="R17">
-        <v>832.445094354141</v>
+        <v>1134.387965319252</v>
       </c>
       <c r="S17">
-        <v>0.006469618705158072</v>
+        <v>0.00228402364416177</v>
       </c>
       <c r="T17">
-        <v>0.005382337058785178</v>
+        <v>0.002175263067999368</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H18">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I18">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J18">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N18">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O18">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P18">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q18">
-        <v>28.46403914889144</v>
+        <v>1049.104904828431</v>
       </c>
       <c r="R18">
-        <v>256.176352340023</v>
+        <v>9441.944143455881</v>
       </c>
       <c r="S18">
-        <v>0.001327305414021775</v>
+        <v>0.01267386721875101</v>
       </c>
       <c r="T18">
-        <v>0.001656358460318502</v>
+        <v>0.01810554502805596</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H19">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I19">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J19">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N19">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O19">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P19">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q19">
-        <v>237.3024023165023</v>
+        <v>294.8385505452367</v>
       </c>
       <c r="R19">
-        <v>2135.721620848521</v>
+        <v>2653.54695490713</v>
       </c>
       <c r="S19">
-        <v>0.01106563835538196</v>
+        <v>0.003561840787685992</v>
       </c>
       <c r="T19">
-        <v>0.01380892710534904</v>
+        <v>0.005088349723974017</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H20">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I20">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J20">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N20">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O20">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P20">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q20">
-        <v>159.185552047995</v>
+        <v>391.3313101734879</v>
       </c>
       <c r="R20">
-        <v>636.7422081919801</v>
+        <v>1565.325240693952</v>
       </c>
       <c r="S20">
-        <v>0.007422974791530161</v>
+        <v>0.004727535864956944</v>
       </c>
       <c r="T20">
-        <v>0.004116981657154688</v>
+        <v>0.003001613459933439</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H21">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I21">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J21">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P21">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q21">
-        <v>939.3654533971621</v>
+        <v>1313.528292065665</v>
       </c>
       <c r="R21">
-        <v>5636.192720382972</v>
+        <v>7881.169752393993</v>
       </c>
       <c r="S21">
-        <v>0.04380351100267619</v>
+        <v>0.01586827312034685</v>
       </c>
       <c r="T21">
-        <v>0.03644190968884122</v>
+        <v>0.01511265811973916</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H22">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I22">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J22">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N22">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O22">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P22">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q22">
-        <v>1951.172793887739</v>
+        <v>4165.663625327168</v>
       </c>
       <c r="R22">
-        <v>11707.03676332643</v>
+        <v>24993.98175196301</v>
       </c>
       <c r="S22">
-        <v>0.09098505659974299</v>
+        <v>0.05032391653341044</v>
       </c>
       <c r="T22">
-        <v>0.07569414276950014</v>
+        <v>0.0479275936359165</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H23">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I23">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J23">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N23">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O23">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P23">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q23">
-        <v>718.5244634954431</v>
+        <v>1377.915375403777</v>
       </c>
       <c r="R23">
-        <v>2874.097853981772</v>
+        <v>5511.661501615107</v>
       </c>
       <c r="S23">
-        <v>0.03350548407820522</v>
+        <v>0.01664611081901182</v>
       </c>
       <c r="T23">
-        <v>0.01858304348836733</v>
+        <v>0.01056897117592667</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H24">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I24">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J24">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N24">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O24">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P24">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q24">
-        <v>147.4123057274194</v>
+        <v>7645.943837394895</v>
       </c>
       <c r="R24">
-        <v>884.4738343645162</v>
+        <v>45875.66302436937</v>
       </c>
       <c r="S24">
-        <v>0.006873977036848509</v>
+        <v>0.0923679572092153</v>
       </c>
       <c r="T24">
-        <v>0.005718739083830457</v>
+        <v>0.0879695823190529</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H25">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I25">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J25">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N25">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O25">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P25">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q25">
-        <v>1228.964522468122</v>
+        <v>2148.802267716462</v>
       </c>
       <c r="R25">
-        <v>7373.787134808733</v>
+        <v>12892.81360629877</v>
       </c>
       <c r="S25">
-        <v>0.05730779302895079</v>
+        <v>0.02595892412193348</v>
       </c>
       <c r="T25">
-        <v>0.04767666724021819</v>
+        <v>0.0247228127746301</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H26">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I26">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J26">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N26">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O26">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P26">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q26">
-        <v>220.4148017249075</v>
+        <v>88.69999983767467</v>
       </c>
       <c r="R26">
-        <v>1322.488810349445</v>
+        <v>532.199999026048</v>
       </c>
       <c r="S26">
-        <v>0.01027815336149858</v>
+        <v>0.001071553488189791</v>
       </c>
       <c r="T26">
-        <v>0.008550810836713694</v>
+        <v>0.001020528283147693</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H27">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I27">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J27">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>346.487229</v>
       </c>
       <c r="O27">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P27">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q27">
-        <v>1300.683683248697</v>
+        <v>297.7271592230981</v>
       </c>
       <c r="R27">
-        <v>11706.15314923827</v>
+        <v>2679.544433007882</v>
       </c>
       <c r="S27">
-        <v>0.06065212620300289</v>
+        <v>0.00359673705274171</v>
       </c>
       <c r="T27">
-        <v>0.07568842958927402</v>
+        <v>0.005138201587448057</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H28">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I28">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J28">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N28">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O28">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P28">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q28">
-        <v>2701.673355168144</v>
+        <v>944.1983130011245</v>
       </c>
       <c r="R28">
-        <v>24315.06019651329</v>
+        <v>8497.784817010119</v>
       </c>
       <c r="S28">
-        <v>0.1259816167507171</v>
+        <v>0.01140652759516167</v>
       </c>
       <c r="T28">
-        <v>0.157213791600062</v>
+        <v>0.01629505780859165</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H29">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I29">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J29">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N29">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O29">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P29">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q29">
-        <v>994.8982499874957</v>
+        <v>312.3212745753987</v>
       </c>
       <c r="R29">
-        <v>5969.389499924973</v>
+        <v>1873.927647452392</v>
       </c>
       <c r="S29">
-        <v>0.04639305850802349</v>
+        <v>0.003773043425249274</v>
       </c>
       <c r="T29">
-        <v>0.03859625883037613</v>
+        <v>0.003593378745391515</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H30">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I30">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J30">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N30">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O30">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P30">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q30">
-        <v>204.1130851430799</v>
+        <v>1733.046141478264</v>
       </c>
       <c r="R30">
-        <v>1837.017766287719</v>
+        <v>15597.41527330437</v>
       </c>
       <c r="S30">
-        <v>0.00951798870026669</v>
+        <v>0.02093632064817798</v>
       </c>
       <c r="T30">
-        <v>0.01187759873677725</v>
+        <v>0.02990906324602953</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H31">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I31">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J31">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N31">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O31">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P31">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q31">
-        <v>1701.674354624124</v>
+        <v>487.0521623049979</v>
       </c>
       <c r="R31">
-        <v>15315.06919161711</v>
+        <v>4383.46946074498</v>
       </c>
       <c r="S31">
-        <v>0.07935070535773113</v>
+        <v>0.005883905799361982</v>
       </c>
       <c r="T31">
-        <v>0.09902258422443412</v>
+        <v>0.00840558919802905</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H32">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I32">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J32">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N32">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O32">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P32">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q32">
-        <v>40.273302015245</v>
+        <v>62.65685715410132</v>
       </c>
       <c r="R32">
-        <v>241.63981209147</v>
+        <v>375.9411429246079</v>
       </c>
       <c r="S32">
-        <v>0.001877982654736849</v>
+        <v>0.000756935444930739</v>
       </c>
       <c r="T32">
-        <v>0.001562369607699925</v>
+        <v>0.0007208917133700596</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H33">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I33">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J33">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>346.487229</v>
       </c>
       <c r="O33">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P33">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q33">
-        <v>237.655667368262</v>
+        <v>210.311703725783</v>
       </c>
       <c r="R33">
-        <v>2138.901006314358</v>
+        <v>1892.805333532047</v>
       </c>
       <c r="S33">
-        <v>0.01108211144317293</v>
+        <v>0.002540701692749954</v>
       </c>
       <c r="T33">
-        <v>0.01382948404578031</v>
+        <v>0.003629577942309831</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H34">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I34">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J34">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N34">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O34">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P34">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q34">
-        <v>493.6388397137832</v>
+        <v>666.9729304523281</v>
       </c>
       <c r="R34">
-        <v>4442.749557424048</v>
+        <v>6002.756374070953</v>
       </c>
       <c r="S34">
-        <v>0.02301885200115912</v>
+        <v>0.008057465292697746</v>
       </c>
       <c r="T34">
-        <v>0.02872546880029068</v>
+        <v>0.01151067769221223</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H35">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I35">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J35">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N35">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O35">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P35">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q35">
-        <v>181.783788487093</v>
+        <v>220.6208514438553</v>
       </c>
       <c r="R35">
-        <v>1090.702730922558</v>
+        <v>1323.725108663132</v>
       </c>
       <c r="S35">
-        <v>0.008476752205763624</v>
+        <v>0.002665242878970703</v>
       </c>
       <c r="T35">
-        <v>0.0070521524705691</v>
+        <v>0.002538329415587545</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H36">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I36">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J36">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N36">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O36">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P36">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q36">
-        <v>37.2947182262749</v>
+        <v>1224.207719580495</v>
       </c>
       <c r="R36">
-        <v>335.652464036474</v>
+        <v>11017.86947622446</v>
       </c>
       <c r="S36">
-        <v>0.001739088439178145</v>
+        <v>0.01478922271235643</v>
       </c>
       <c r="T36">
-        <v>0.002170226851366977</v>
+        <v>0.02112748485737295</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H37">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I37">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J37">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N37">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O37">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P37">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q37">
-        <v>310.9230626938887</v>
+        <v>344.0491298307588</v>
       </c>
       <c r="R37">
-        <v>2798.307564244998</v>
+        <v>3096.442168476829</v>
       </c>
       <c r="S37">
-        <v>0.01449864027726728</v>
+        <v>0.004156336480873627</v>
       </c>
       <c r="T37">
-        <v>0.01809300650224898</v>
+        <v>0.005937630243977352</v>
       </c>
     </row>
   </sheetData>
